--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rln3-Rxfp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rln3-Rxfp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -552,33 +552,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.03795066666666667</v>
+        <v>0.02528233333333333</v>
       </c>
       <c r="N2">
-        <v>0.113852</v>
+        <v>0.075847</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.2893587312729617</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.2893587312729617</v>
       </c>
       <c r="Q2">
-        <v>0.008542581214666667</v>
+        <v>0.005690977386333333</v>
       </c>
       <c r="R2">
-        <v>0.07688323093199999</v>
+        <v>0.051218796477</v>
       </c>
       <c r="S2">
-        <v>0.1920188148530651</v>
+        <v>0.05556232064642067</v>
       </c>
       <c r="T2">
-        <v>0.1920188148530651</v>
+        <v>0.05556232064642066</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -590,52 +590,176 @@
         <v>24</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.225097</v>
+      </c>
+      <c r="H3">
+        <v>0.675291</v>
+      </c>
+      <c r="I3">
+        <v>0.1920188148530651</v>
+      </c>
+      <c r="J3">
+        <v>0.1920188148530651</v>
+      </c>
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="L3">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G3">
-        <v>0.9471683333333333</v>
-      </c>
-      <c r="H3">
+      <c r="M3">
+        <v>0.06209133333333333</v>
+      </c>
+      <c r="N3">
+        <v>0.186274</v>
+      </c>
+      <c r="O3">
+        <v>0.7106412687270383</v>
+      </c>
+      <c r="P3">
+        <v>0.7106412687270383</v>
+      </c>
+      <c r="Q3">
+        <v>0.01397657285933333</v>
+      </c>
+      <c r="R3">
+        <v>0.125789155734</v>
+      </c>
+      <c r="S3">
+        <v>0.1364564942066445</v>
+      </c>
+      <c r="T3">
+        <v>0.1364564942066444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.9471683333333334</v>
+      </c>
+      <c r="H4">
         <v>2.841505</v>
       </c>
-      <c r="I3">
+      <c r="I4">
+        <v>0.807981185146935</v>
+      </c>
+      <c r="J4">
         <v>0.8079811851469348</v>
       </c>
-      <c r="J3">
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.02528233333333333</v>
+      </c>
+      <c r="N4">
+        <v>0.075847</v>
+      </c>
+      <c r="O4">
+        <v>0.2893587312729617</v>
+      </c>
+      <c r="P4">
+        <v>0.2893587312729617</v>
+      </c>
+      <c r="Q4">
+        <v>0.02394662552611111</v>
+      </c>
+      <c r="R4">
+        <v>0.215519629735</v>
+      </c>
+      <c r="S4">
+        <v>0.2337964106265411</v>
+      </c>
+      <c r="T4">
+        <v>0.2337964106265411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.9471683333333334</v>
+      </c>
+      <c r="H5">
+        <v>2.841505</v>
+      </c>
+      <c r="I5">
+        <v>0.807981185146935</v>
+      </c>
+      <c r="J5">
         <v>0.8079811851469348</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M3">
-        <v>0.03795066666666667</v>
-      </c>
-      <c r="N3">
-        <v>0.113852</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>0.03594566969555556</v>
-      </c>
-      <c r="R3">
-        <v>0.32351102726</v>
-      </c>
-      <c r="S3">
-        <v>0.8079811851469348</v>
-      </c>
-      <c r="T3">
-        <v>0.8079811851469348</v>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.06209133333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.186274</v>
+      </c>
+      <c r="O5">
+        <v>0.7106412687270383</v>
+      </c>
+      <c r="P5">
+        <v>0.7106412687270383</v>
+      </c>
+      <c r="Q5">
+        <v>0.05881094470777778</v>
+      </c>
+      <c r="R5">
+        <v>0.52929850237</v>
+      </c>
+      <c r="S5">
+        <v>0.5741847745203938</v>
+      </c>
+      <c r="T5">
+        <v>0.5741847745203937</v>
       </c>
     </row>
   </sheetData>
